--- a/stock/data/stock_info/sz_b.xlsx
+++ b/stock/data/stock_info/sz_b.xlsx
@@ -3107,7 +3107,7 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>360,350,022</t>
+          <t>360,399,597</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
